--- a/Statystyki_2018/Template/oktg.xlsx
+++ b/Statystyki_2018/Template/oktg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB1DA4C-3774-437A-9FBA-1D00A65475CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A35E43C-E0D1-4FDD-97D4-9FD180E84F0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
-    <t xml:space="preserve"> INFORMACJA O RUCHU SPRAW W WYDZIALE  GOSPODARCZYM  ZA LUTY  2018r.                       </t>
-  </si>
-  <si>
     <t>Lp</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Razem</t>
   </si>
   <si>
-    <t>INFORMACJA O RUCHU SPRAW W WYDZIALE GOSPODARCZYM ZA MIESIĄC LUTY  2018r.</t>
-  </si>
-  <si>
     <t>Nazwisko i imię sędziego               wg funkcji w wydziale</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>ZAŁATWIENIA</t>
+  </si>
+  <si>
+    <t>INFORMACJA O RUCHU SPRAW W WYDZIALE GOSPODARCZYM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INFORMACJA O RUCHU SPRAW W WYDZIALE  GOSPODARCZYM          </t>
   </si>
 </sst>
 </file>
@@ -398,10 +398,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -410,52 +455,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,7 +823,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,123 +836,126 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="P4" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
       <c r="O5" s="28"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -969,9 +972,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -983,7 +983,7 @@
   <dimension ref="A2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +993,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -1025,22 +1025,22 @@
       <c r="A4" s="31"/>
       <c r="B4" s="34"/>
       <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="I4" s="2"/>
     </row>

--- a/Statystyki_2018/Template/oktg.xlsx
+++ b/Statystyki_2018/Template/oktg.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A35E43C-E0D1-4FDD-97D4-9FD180E84F0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E539C909-A335-4344-AF9B-0C39E8C92BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Lp</t>
   </si>
   <si>
-    <t>Nazwisko i imię sedziego               wg funkcji w wydziale</t>
-  </si>
-  <si>
     <t>Ilośc odbytych sesji/spraw</t>
   </si>
   <si>
@@ -33,9 +40,6 @@
     <t>WPŁYW</t>
   </si>
   <si>
-    <t>Absencja w dn. rob.</t>
-  </si>
-  <si>
     <t>GC</t>
   </si>
   <si>
@@ -60,13 +64,29 @@
     <t xml:space="preserve">                                         ZALEGŁOŚCI</t>
   </si>
   <si>
-    <t>ZAŁATWIENIA</t>
-  </si>
-  <si>
     <t>INFORMACJA O RUCHU SPRAW W WYDZIALE GOSPODARCZYM</t>
   </si>
   <si>
-    <t xml:space="preserve"> INFORMACJA O RUCHU SPRAW W WYDZIALE  GOSPODARCZYM          </t>
+    <t>razem</t>
+  </si>
+  <si>
+    <t>Gco</t>
+  </si>
+  <si>
+    <t>Gz</t>
+  </si>
+  <si>
+    <t>Załatwienia</t>
+  </si>
+  <si>
+    <t>Zaległość</t>
+  </si>
+  <si>
+    <t>Absencja w dniach roboczych</t>
+  </si>
+  <si>
+    <t>Nazwisko i imię sedziego        
+ wg funkcji w wydziale</t>
   </si>
 </sst>
 </file>
@@ -105,21 +125,15 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -209,45 +223,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -261,19 +255,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -321,19 +302,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -378,108 +346,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A2:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,147 +778,212 @@
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="26" max="26" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="19" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22" t="s">
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="1" t="s">
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="N4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" s="27"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="4"/>
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+  <mergeCells count="30">
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="L3:R3"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -992,57 +1004,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Statystyki_2018/Template/oktg.xlsx
+++ b/Statystyki_2018/Template/oktg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E539C909-A335-4344-AF9B-0C39E8C92BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CB32F-5D84-4AF7-8C8C-18BF65E89038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Lp</t>
   </si>
@@ -58,16 +58,10 @@
     <t>Razem</t>
   </si>
   <si>
-    <t>Nazwisko i imię sędziego               wg funkcji w wydziale</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                         ZALEGŁOŚCI</t>
   </si>
   <si>
     <t>INFORMACJA O RUCHU SPRAW W WYDZIALE GOSPODARCZYM</t>
-  </si>
-  <si>
-    <t>razem</t>
   </si>
   <si>
     <t>Gco</t>
@@ -87,6 +81,13 @@
   <si>
     <t>Nazwisko i imię sedziego        
  wg funkcji w wydziale</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Nazwisko i imię sędziego 
+wg funkcji w wydziale</t>
   </si>
 </sst>
 </file>
@@ -133,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -226,17 +227,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -346,42 +336,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,34 +374,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -426,7 +383,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Z5"/>
+  <dimension ref="A2:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,44 +761,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -833,7 +811,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
       <c r="L3" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
@@ -842,7 +820,7 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="18"/>
       <c r="S3" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
@@ -850,107 +828,112 @@
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="27" t="s">
-        <v>18</v>
+      <c r="Z3" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="T4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="V4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="W4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z4" s="27"/>
+      <c r="Y4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="27"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -970,11 +953,6 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -984,6 +962,11 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -994,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,38 +987,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1031,7 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
